--- a/docs/0 south ave land comps.xlsx
+++ b/docs/0 south ave land comps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3f65a642d0762be/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3f65a642d0762be/Desktop/214_assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{44F1ADE8-0AC1-47FA-B9F9-49DC3BFBA221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE2026B1-6ECD-4C49-9D36-F9ED62D473A7}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{44F1ADE8-0AC1-47FA-B9F9-49DC3BFBA221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB94E68-6C08-4853-BC00-F76C46D5159D}"/>
   <bookViews>
-    <workbookView xWindow="11052" yWindow="0" windowWidth="12084" windowHeight="9000" xr2:uid="{B79E797B-7245-4FDD-B2DA-DA87448AFCEC}"/>
+    <workbookView xWindow="2124" yWindow="600" windowWidth="20004" windowHeight="11640" xr2:uid="{B79E797B-7245-4FDD-B2DA-DA87448AFCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -227,12 +233,16 @@
     <xf numFmtId="6" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +585,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="C13" sqref="C13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,28 +984,28 @@
       <c r="B13" s="10">
         <v>100</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>6</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="11">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="12">
         <v>3016</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="I13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1094,5 +1104,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/0 south ave land comps.xlsx
+++ b/docs/0 south ave land comps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3f65a642d0762be/Desktop/214_assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{44F1ADE8-0AC1-47FA-B9F9-49DC3BFBA221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DB94E68-6C08-4853-BC00-F76C46D5159D}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{44F1ADE8-0AC1-47FA-B9F9-49DC3BFBA221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718D8948-AA0A-4446-A95B-CED62B98D3D0}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="600" windowWidth="20004" windowHeight="11640" xr2:uid="{B79E797B-7245-4FDD-B2DA-DA87448AFCEC}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17784" windowHeight="12240" xr2:uid="{B79E797B-7245-4FDD-B2DA-DA87448AFCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>R3</t>
   </si>
@@ -95,27 +95,6 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>C603</t>
-  </si>
-  <si>
-    <t>DIMMOCK ST SW</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>LEE ST SW</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C918</t>
-  </si>
-  <si>
-    <t>735 MARTIN ST</t>
-  </si>
-  <si>
     <t>NBHD_code</t>
   </si>
   <si>
@@ -132,9 +111,6 @@
   </si>
   <si>
     <t>sale_price</t>
-  </si>
-  <si>
-    <t>HOPE</t>
   </si>
 </sst>
 </file>
@@ -258,10 +234,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,17 +554,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A888EB2-0BAF-4B62-80C6-60988F706412}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -601,28 +573,28 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>14275</v>
       </c>
@@ -654,7 +626,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>14275</v>
       </c>
@@ -686,7 +658,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>14275</v>
       </c>
@@ -718,7 +690,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>171403</v>
       </c>
@@ -750,7 +722,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1736</v>
       </c>
@@ -782,7 +754,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>17046</v>
       </c>
@@ -813,11 +785,8 @@
       <c r="J7" s="9">
         <v>21000</v>
       </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>14695</v>
       </c>
@@ -849,7 +818,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>14695</v>
       </c>
@@ -881,7 +850,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>1431</v>
       </c>
@@ -913,7 +882,7 @@
         <v>344500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>14362</v>
       </c>
@@ -945,7 +914,7 @@
         <v>575000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1434</v>
       </c>
@@ -977,7 +946,7 @@
         <v>545600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>14275</v>
       </c>
@@ -1007,99 +976,6 @@
       </c>
       <c r="J13" s="13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:11" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6">
-        <v>300</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6">
-        <v>22</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.27650000000000002</v>
-      </c>
-      <c r="H15" s="7">
-        <v>12044</v>
-      </c>
-      <c r="I15" s="8">
-        <v>45177</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6">
-        <v>300</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="6">
-        <v>23</v>
-      </c>
-      <c r="G17" s="6">
-        <v>7.8799999999999995E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3431</v>
-      </c>
-      <c r="I17" s="8">
-        <v>45345</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6">
-        <v>300</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="6">
-        <v>21</v>
-      </c>
-      <c r="G19" s="6">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1440</v>
-      </c>
-      <c r="I19" s="8">
-        <v>45618</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
